--- a/biology/Botanique/Asphodelus_ramosus/Asphodelus_ramosus.xlsx
+++ b/biology/Botanique/Asphodelus_ramosus/Asphodelus_ramosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asphodelus ramosus
-L'asphodèle ramifié (Asphodelus ramosus), parfois appelé aussi asphodèle rameux, asphodèle à petits fruits ou bâton-blanc ramifié, est une espèce de plantes herbacées vivaces de la famille des Liliacées, selon la classification classique, ou des Asphodélacées, selon la classification phylogénétique[1], du genre Asphodelus.
+L'asphodèle ramifié (Asphodelus ramosus), parfois appelé aussi asphodèle rameux, asphodèle à petits fruits ou bâton-blanc ramifié, est une espèce de plantes herbacées vivaces de la famille des Liliacées, selon la classification classique, ou des Asphodélacées, selon la classification phylogénétique, du genre Asphodelus.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'asphodèle ramifié est une plante rudérale et pluriannuelle qui pousse sur des terrains calcaires, parfois en bordure de garrigues ou des chemins. 
 C'est une plante assez facile à identifier, mais que les auteurs ont souvent confondue soit avec Asphodelus albus, soit surtout avec Asphodelus cerasiferus. Il se distingue d'eux d'une part parce que sa tige est très ramifiée, de l'autre parce que ses fruits sont plus petits. En outre, au moins sur les côtes catalanes où il est très fréquent, il s'oppose aux autres asphodèles par une grande affinité pour les sols acides, essentiellement schisteux. Il pousse notamment sur les pentes du massif des Albères, à proximité de la mer, où il forme d'abondantes colonies en avril-mai. Les fleurs, très nombreuses, sont blanches, à six tépales portant une strie centrale brune. Les fruits sont des petites capsules rondes.
@@ -548,9 +562,11 @@
           <t>Plante-hôte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Asphodèles font partie des plantes à introduire dans les oliveraies car elles abritent des insectes auxiliaires[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Asphodèles font partie des plantes à introduire dans les oliveraies car elles abritent des insectes auxiliaires.
 </t>
         </is>
       </c>
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
